--- a/data.xlsx
+++ b/data.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Linearity" sheetId="1" r:id="rId1"/>
     <sheet name="Communication cost" sheetId="3" r:id="rId2"/>
+    <sheet name="SSE" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="16">
   <si>
     <t>Our code</t>
   </si>
@@ -64,6 +65,15 @@
   </si>
   <si>
     <t>n=6000, i=2000</t>
+  </si>
+  <si>
+    <t>SSE</t>
+  </si>
+  <si>
+    <t>Without SSE</t>
+  </si>
+  <si>
+    <t>Improvement rate (%)</t>
   </si>
 </sst>
 </file>
@@ -327,11 +337,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-1022768832"/>
-        <c:axId val="-1022776448"/>
+        <c:axId val="-885984144"/>
+        <c:axId val="-885992848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-1022768832"/>
+        <c:axId val="-885984144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -434,7 +444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022776448"/>
+        <c:crossAx val="-885992848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -442,7 +452,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1022776448"/>
+        <c:axId val="-885992848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -548,7 +558,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022768832"/>
+        <c:crossAx val="-885984144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -746,7 +756,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -865,7 +874,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -917,11 +925,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1022762848"/>
-        <c:axId val="-1022778080"/>
+        <c:axId val="-885982512"/>
+        <c:axId val="-885981968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1022762848"/>
+        <c:axId val="-885982512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,7 +961,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1020,7 +1027,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022778080"/>
+        <c:crossAx val="-885981968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1028,7 +1035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1022778080"/>
+        <c:axId val="-885981968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1074,7 +1081,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1135,7 +1141,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1022762848"/>
+        <c:crossAx val="-885982512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1223,6 +1229,568 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Without SSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Linearity!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Linearity!$A$2,Linearity!$A$4,Linearity!$A$6,Linearity!$A$8)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>P=128, X= 16, Y=8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P=256, X=16, Y=16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P=512, X=32, Y=16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P=1024, X=32, Y=32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>SSE!$B$2:$B$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(SSE!$B$2,SSE!$B$4,SSE!$B$6,SSE!$B$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>611</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1410</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2610</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>SSE</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="percentage"/>
+            <c:noEndCap val="0"/>
+            <c:val val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Linearity!$A$2:$A$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Linearity!$A$2,Linearity!$A$4,Linearity!$A$6,Linearity!$A$8)</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>P=128, X= 16, Y=8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>P=256, X=16, Y=16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>P=512, X=32, Y=16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>P=1024, X=32, Y=32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>SSE!$C$2:$C$9</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(SSE!$C$2,SSE!$C$4,SSE!$C$6,SSE!$C$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3980</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="-885996656"/>
+        <c:axId val="-885990672"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="-885996656"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>The</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> number of processes</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-885990672"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-885990672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="0"/>
+                  <a:t>GFlops</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-885996656"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup orientation="landscape"/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1269,6 +1837,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -1935,6 +2543,522 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2342,6 +3466,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2621,10 +3782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2632,17 +3793,19 @@
     <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -2653,7 +3816,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2664,7 +3827,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2675,7 +3838,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2686,7 +3849,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -2697,7 +3860,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -2708,7 +3871,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -2719,7 +3882,7 @@
         <v>2490</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2730,7 +3893,7 @@
         <v>3039</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -2746,8 +3909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2831,4 +3994,157 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>266</v>
+      </c>
+      <c r="C2">
+        <v>309</v>
+      </c>
+      <c r="D2">
+        <f>(C2-B2)*100/B2</f>
+        <v>16.165413533834588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>268</v>
+      </c>
+      <c r="C3">
+        <v>312</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">(C3-B3)*100/B3</f>
+        <v>16.417910447761194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2">
+        <v>611</v>
+      </c>
+      <c r="C4">
+        <v>824</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>34.860883797054008</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>632</v>
+      </c>
+      <c r="C5">
+        <v>842</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>33.22784810126582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1410</v>
+      </c>
+      <c r="C6">
+        <v>2203</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>56.241134751773046</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1500</v>
+      </c>
+      <c r="C7">
+        <v>2380</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>58.666666666666664</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2610</v>
+      </c>
+      <c r="C8">
+        <v>3980</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>52.490421455938694</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>2940</v>
+      </c>
+      <c r="C9">
+        <v>4430</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>50.680272108843539</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>